--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474320.197374112</v>
+        <v>3472432.61585771</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580121.6199840162</v>
+        <v>254902.1521621744</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8369702.47458271</v>
+        <v>8369702.474582712</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9332843063845</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.1170183604507</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>320.797539652425</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>43.80431246487729</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>78.99322435280337</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>235.474518856444</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274192</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>170.9606397709134</v>
       </c>
       <c r="X13" t="n">
-        <v>141.8703649047186</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056506</v>
+        <v>97.57844865856735</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065113</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>20.58581884348019</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>272.5149355288337</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9576419790496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>142.719749724793</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>47.62361933169129</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965523</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>105.1091131290413</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>104.6162101521966</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4370,10 +4370,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,7 +4416,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>391.9043047226068</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>377.9809006611977</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>2055.088890809413</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805481</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822474</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171746</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M12" t="n">
-        <v>1149.698165809328</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3351829786183</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722734</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3351829786183</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3351829786183</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5358,25 +5358,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.211522871574</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765181</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706311</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336702</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
         <v>1283.483062980063</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387941</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,16 +5738,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,13 +5914,13 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
         <v>1283.483062980063</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609655</v>
+        <v>912.6535453899928</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609655</v>
+        <v>912.6535453899928</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240048</v>
+        <v>623.2363753530323</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340558</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905257</v>
+        <v>395.2468244550149</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6002,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2045.433897687154</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186626</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924325</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>643.8194987924325</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>423.0269196489023</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,7 +6215,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6309,22 +6309,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028569</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028569</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028574</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1139.816491043673</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011503</v>
+        <v>1139.816491043673</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952635</v>
+        <v>885.1320028377861</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583029</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028569</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028569</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205023</v>
+        <v>506.0881760231923</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739662</v>
+        <v>392.9128583766562</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430014</v>
+        <v>392.9128583766562</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>300.7606300756339</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6625,13 +6625,13 @@
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1829.955241713608</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1661.930691784485</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1428.562918279414</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1229.639295354898</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>995.9829905993081</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>823.7543049826616</v>
+        <v>797.0074894342204</v>
       </c>
       <c r="Y31" t="n">
-        <v>658.7225911205023</v>
+        <v>631.9757755720611</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,31 +6953,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>381.3300194168668</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>1149.698165809328</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,16 +7114,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,22 +7160,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>153.2008586714112</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>277.7495709435576</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1863666348544</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>197.4618328035885</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,19 +11385,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="X13" t="n">
-        <v>83.83929048431852</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338659</v>
+        <v>128.1312067304698</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.057676551878</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>197.9988345086146</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>13.72241686974367</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.75201340998757</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>24.52707137383484</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338491</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>173.923941726698</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.60844022600479</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>65.89018860828344</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.307527876</v>
       </c>
     </row>
     <row r="11">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541045</v>
@@ -26329,31 +26329,31 @@
         <v>664749.4015541048</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541044</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869595</v>
+        <v>691597.6334869597</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="M2" t="n">
         <v>697885.5043846405</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846404</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.602795259634346e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.793690575816</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.793690575885</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758286</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758797</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189642</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189637</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114000.5920739319</v>
+        <v>-114000.5920739321</v>
       </c>
       <c r="C6" t="n">
         <v>475967.2871406124</v>
       </c>
       <c r="D6" t="n">
-        <v>475967.2871406124</v>
+        <v>475967.2871406127</v>
       </c>
       <c r="E6" t="n">
-        <v>46814.24543791605</v>
+        <v>46716.78631194383</v>
       </c>
       <c r="F6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888399</v>
       </c>
       <c r="G6" t="n">
-        <v>571974.2819148123</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="H6" t="n">
-        <v>571974.2819148119</v>
+        <v>571876.82278884</v>
       </c>
       <c r="I6" t="n">
-        <v>571974.2819148122</v>
+        <v>571876.8227888402</v>
       </c>
       <c r="J6" t="n">
-        <v>395551.0627222189</v>
+        <v>395453.6035962472</v>
       </c>
       <c r="K6" t="n">
-        <v>531854.4034491186</v>
+        <v>531835.9097111844</v>
       </c>
       <c r="L6" t="n">
-        <v>566620.9108318521</v>
+        <v>566620.9108318519</v>
       </c>
       <c r="M6" t="n">
-        <v>442162.8023988815</v>
+        <v>442162.8023988816</v>
       </c>
       <c r="N6" t="n">
-        <v>576963.8176327187</v>
+        <v>576963.8176327186</v>
       </c>
       <c r="O6" t="n">
-        <v>576963.8176327188</v>
+        <v>576963.8176327186</v>
       </c>
       <c r="P6" t="n">
-        <v>532801.2123298731</v>
+        <v>532801.2123298729</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,37 +26741,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.503494074542933e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.503494074542933e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>28.47326068486274</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.98948845797261</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1681237664919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>136.2002014355553</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.813351711811094</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.125233111932175</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27664,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,13 +27822,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>56.69292621882474</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.6114003440942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>290.7378763256656</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>50.8073553855337</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>264.1714611465364</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31136,10 +31136,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31370,13 +31370,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,34 +31835,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>119.4431162246986</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>311.773437044184</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,16 +32558,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>312.2752819045313</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32792,31 +32792,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>318.6581408737418</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33032,10 +33032,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33044,16 +33044,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,19 +33260,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33281,16 +33281,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>83.78157095344744</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>54.69678998811293</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>199.2022664297722</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,25 +33883,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>95.829871426875</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,25 +34214,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>100.1210300793642</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>394.5743270681836</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>14.64647889153703</v>
       </c>
       <c r="M12" t="n">
-        <v>443.0141460526802</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>143.7751635292273</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>659.7740993044042</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36051,7 +36051,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206028</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>228.7283062629105</v>
+        <v>635.8463117325128</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>503.1465020993488</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>260.8446545515211</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>66.12012072025526</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>431.7822332136677</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>286.9827555116979</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>450.4683412620573</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>443.8305336870952</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37710,16 +37710,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>351.3871049116493</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>645.8404019004687</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
